--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_murakami\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443B81EE-68FB-4071-88EA-4C220EEB0D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423FD031-B065-4453-B29D-8E6752B97FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8EBC75B-525F-4935-810D-20193FD5780E}"/>
   </bookViews>
@@ -220,13 +220,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「1~9のマス番号を入力してください：」を表示</t>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>半角数字1が戻り値として返ってくる</t>
     <rPh sb="0" eb="4">
       <t>ハンカクスウジ</t>
@@ -904,6 +897,19 @@
 　　　　{PLAYER1_MARK, PLAYER2_MARK, BLANK}}</t>
     <rPh sb="17" eb="19">
       <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「マークを書き込むマスの番号を入力してください：」を表示</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3706,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686EF1E3-CA8E-4C89-A010-1B1710CBFB76}">
   <dimension ref="B5:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3757,10 +3763,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="7" t="b">
@@ -3774,10 +3780,10 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="7" t="b">
@@ -3791,10 +3797,10 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="7" t="b">
@@ -3808,7 +3814,7 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -3825,7 +3831,7 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -3842,7 +3848,7 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -3859,7 +3865,7 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -3876,7 +3882,7 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -3893,7 +3899,7 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
@@ -3946,7 +3952,7 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>13</v>
@@ -3965,10 +3971,10 @@
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="7" t="b">
@@ -3982,10 +3988,10 @@
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="7" t="b">
@@ -3999,10 +4005,10 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="7" t="b">
@@ -4016,10 +4022,10 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="7" t="b">
@@ -4033,10 +4039,10 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="7" t="b">
@@ -4050,10 +4056,10 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="7" t="b">
@@ -4067,10 +4073,10 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="7" t="b">
@@ -4084,10 +4090,10 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="7" t="b">
@@ -4101,10 +4107,10 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="7" t="b">
@@ -4118,10 +4124,10 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="7" t="b">
@@ -4135,10 +4141,10 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="7" t="b">
@@ -4152,10 +4158,10 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="7" t="b">
@@ -4169,10 +4175,10 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="7" t="b">
@@ -4186,10 +4192,10 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="7" t="b">
@@ -4203,10 +4209,10 @@
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="7" t="b">
@@ -4220,10 +4226,10 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="7" t="b">
@@ -4237,10 +4243,10 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="7" t="b">
@@ -4254,10 +4260,10 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="7" t="b">
@@ -4271,10 +4277,10 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="7" t="b">
